--- a/data/processed/_10_encoded-articles-adjusted.xlsx
+++ b/data/processed/_10_encoded-articles-adjusted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d78fae2ee862e741/Repositorios/ETech-Gov-Review/data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d78fae2ee862e741/Repositorios/AI-Cop_SLR/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_745931BFD36050782BB93411595ED87656C975CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1565541-260D-40E3-9874-C59F2B17DBAC}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_745931BFD36050782BB93411595ED87656C975CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{859D1F2B-5DF4-4F01-B647-4BE1B9581EA2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3675,32 +3675,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.88671875" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="183.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="94.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="250.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -5128,7 +5129,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6135,7 +6136,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6347,7 +6348,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -6877,7 +6878,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7089,7 +7090,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7195,7 +7196,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7354,7 +7355,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7566,7 +7567,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7725,7 +7726,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7831,7 +7832,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8096,7 +8097,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8255,7 +8256,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8361,7 +8362,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8573,7 +8574,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8626,7 +8627,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8838,7 +8839,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9050,7 +9051,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9209,7 +9210,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9262,7 +9263,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9368,7 +9369,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9527,7 +9528,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -9686,7 +9687,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9792,7 +9793,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9845,7 +9846,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -9951,7 +9952,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10216,7 +10217,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -10375,7 +10376,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -10428,7 +10429,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -10587,7 +10588,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -10693,7 +10694,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -10746,7 +10747,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -10906,13 +10907,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q136" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Micro"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q136" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>